--- a/Docs/Tile Types.xlsx
+++ b/Docs/Tile Types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8100" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>Empty Space</t>
   </si>
@@ -57,6 +57,9 @@
     <t>Treasure Chest Open</t>
   </si>
   <si>
+    <t>Sign</t>
+  </si>
+  <si>
     <t>Fighter</t>
   </si>
   <si>
@@ -325,6 +328,12 @@
   </si>
   <si>
     <t>Screen Border</t>
+  </si>
+  <si>
+    <t>Lava?</t>
+  </si>
+  <si>
+    <t>Water?</t>
   </si>
 </sst>
 </file>
@@ -403,7 +412,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -420,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -705,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -745,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -759,25 +771,25 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1">
         <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1">
         <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1">
         <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" s="1">
         <v>160</v>
@@ -786,13 +798,13 @@
         <v>192</v>
       </c>
       <c r="O3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P3" s="1">
         <v>224</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -806,25 +818,25 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1">
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1">
         <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1">
         <v>161</v>
@@ -833,7 +845,7 @@
         <v>193</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P4" s="1">
         <v>225</v>
@@ -850,19 +862,19 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1">
         <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1">
         <v>130</v>
@@ -874,7 +886,7 @@
         <v>194</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P5" s="1">
         <v>226</v>
@@ -891,19 +903,19 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1">
         <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
         <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" s="1">
         <v>131</v>
@@ -915,7 +927,7 @@
         <v>195</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P6" s="1">
         <v>227</v>
@@ -926,25 +938,25 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1">
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1">
         <v>132</v>
@@ -956,7 +968,7 @@
         <v>196</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P7" s="1">
         <v>228</v>
@@ -967,25 +979,25 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1">
         <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J8" s="1">
         <v>133</v>
@@ -997,7 +1009,7 @@
         <v>197</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P8" s="1">
         <v>229</v>
@@ -1008,25 +1020,25 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1">
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1">
         <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1">
         <v>134</v>
@@ -1038,7 +1050,7 @@
         <v>198</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P9" s="1">
         <v>230</v>
@@ -1055,23 +1067,24 @@
         <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1">
         <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1">
         <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1">
         <v>135</v>
       </c>
+      <c r="K10" s="9"/>
       <c r="L10" s="1">
         <v>167</v>
       </c>
@@ -1079,7 +1092,7 @@
         <v>199</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P10" s="1">
         <v>231</v>
@@ -1090,25 +1103,25 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1">
         <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1">
         <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1">
         <v>136</v>
@@ -1120,7 +1133,7 @@
         <v>200</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P11" s="1">
         <v>232</v>
@@ -1131,25 +1144,25 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1">
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1">
         <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1">
         <v>137</v>
@@ -1161,7 +1174,7 @@
         <v>201</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P12" s="1">
         <v>233</v>
@@ -1172,19 +1185,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1">
         <v>106</v>
@@ -1199,7 +1212,7 @@
         <v>202</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="1">
         <v>234</v>
@@ -1210,19 +1223,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1">
         <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1">
         <v>107</v>
@@ -1237,7 +1250,7 @@
         <v>203</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" s="1">
         <v>235</v>
@@ -1248,19 +1261,19 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1">
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1">
         <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1">
         <v>108</v>
@@ -1273,6 +1286,9 @@
       </c>
       <c r="N15" s="1">
         <v>204</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
       </c>
       <c r="P15" s="1">
         <v>236</v>
@@ -1283,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1">
         <v>45</v>
@@ -1292,7 +1308,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1">
         <v>109</v>
@@ -1305,6 +1321,9 @@
       </c>
       <c r="N16" s="1">
         <v>205</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
       </c>
       <c r="P16" s="1">
         <v>237</v>
@@ -1318,13 +1337,13 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1">
         <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1">
         <v>110</v>
@@ -1346,17 +1365,20 @@
       <c r="B18" s="1">
         <v>15</v>
       </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
       <c r="D18" s="1">
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
         <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1">
         <v>111</v>
@@ -1378,6 +1400,9 @@
       <c r="B19" s="1">
         <v>16</v>
       </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
       <c r="D19" s="1">
         <v>48</v>
       </c>
@@ -1388,7 +1413,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="1">
         <v>112</v>
@@ -1420,7 +1445,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1">
         <v>113</v>
@@ -1452,7 +1477,7 @@
         <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" s="1">
         <v>114</v>
@@ -1484,7 +1509,7 @@
         <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1">
         <v>115</v>
@@ -1516,7 +1541,7 @@
         <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" s="1">
         <v>116</v>
@@ -1548,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24" s="1">
         <v>117</v>
@@ -1580,7 +1605,7 @@
         <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25" s="1">
         <v>118</v>
@@ -1612,7 +1637,7 @@
         <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1">
         <v>119</v>
@@ -1644,7 +1669,7 @@
         <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1">
         <v>120</v>
@@ -1676,7 +1701,7 @@
         <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" s="1">
         <v>121</v>
@@ -1702,13 +1727,13 @@
         <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1">
         <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H29" s="1">
         <v>122</v>
@@ -1734,7 +1759,7 @@
         <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="1">
         <v>91</v>
@@ -1763,7 +1788,7 @@
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="1">
         <v>92</v>
@@ -1792,7 +1817,7 @@
         <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1">
         <v>93</v>
@@ -1821,7 +1846,7 @@
         <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1">
         <v>94</v>
@@ -1850,7 +1875,7 @@
         <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1">
         <v>95</v>
@@ -1871,7 +1896,7 @@
         <v>255</v>
       </c>
       <c r="Q34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
@@ -1891,32 +1916,32 @@
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Tile Types.xlsx
+++ b/Docs/Tile Types.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>Empty Space</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Water?</t>
+  </si>
+  <si>
+    <t>Secret Door?</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -718,7 +721,7 @@
   <dimension ref="B2:Q207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,6 +1336,9 @@
       <c r="B17" s="1">
         <v>14</v>
       </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
       <c r="D17" s="1">
         <v>46</v>
       </c>

--- a/Docs/Tile Types.xlsx
+++ b/Docs/Tile Types.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>Empty Space</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Secret Door?</t>
+  </si>
+  <si>
+    <t>Portal</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
   <dimension ref="B2:Q207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,6 +1444,9 @@
       <c r="B20" s="1">
         <v>17</v>
       </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
       <c r="D20" s="1">
         <v>49</v>
       </c>
@@ -1472,6 +1478,9 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
       </c>
       <c r="D21" s="1">
         <v>50</v>
